--- a/RAAL/Consumption/Results/Results_Consumption_xgb_RAAL_WM.xlsx
+++ b/RAAL/Consumption/Results/Results_Consumption_xgb_RAAL_WM.xlsx
@@ -379,1058 +379,1058 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>5.535291194915771</v>
+        <v>4.220987319946289</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>5.848196029663086</v>
+        <v>3.964477062225342</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>5.970880031585693</v>
+        <v>4.176630973815918</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>5.212789058685303</v>
+        <v>4.159878730773926</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>5.09507417678833</v>
+        <v>3.80241584777832</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>5.191904544830322</v>
+        <v>3.707133531570435</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>4.280966758728027</v>
+        <v>3.794259309768677</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>3.930292129516602</v>
+        <v>3.639703035354614</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>3.467536687850952</v>
+        <v>3.640395879745483</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>3.166576623916626</v>
+        <v>3.430887699127197</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45346</v>
+        <v>45370</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>3.825772285461426</v>
+        <v>3.341203212738037</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45346</v>
+        <v>45370</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>3.963587284088135</v>
+        <v>3.365144968032837</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45346</v>
+        <v>45370</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>4.209510326385498</v>
+        <v>2.86371636390686</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45346</v>
+        <v>45370</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>4.030880928039551</v>
+        <v>2.356311798095703</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>4.030880928039551</v>
+        <v>2.274955749511719</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>3.898089408874512</v>
+        <v>2.265320539474487</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>3.043621301651001</v>
+        <v>2.13236403465271</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>2.796987533569336</v>
+        <v>2.090662717819214</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>2.505397081375122</v>
+        <v>2.152424573898315</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>2.476572751998901</v>
+        <v>2.757708787918091</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>2.427747011184692</v>
+        <v>3.065781831741333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>2.204042196273804</v>
+        <v>4.204745769500732</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
-        <v>2.253716468811035</v>
+        <v>4.178340911865234</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>2.025426149368286</v>
+        <v>4.327641010284424</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>1.97678542137146</v>
+        <v>4.12451171875</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>2.139091491699219</v>
+        <v>3.838339328765869</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>2.549754619598389</v>
+        <v>4.091320514678955</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>2.556902885437012</v>
+        <v>3.999934434890747</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>2.597117185592651</v>
+        <v>3.738850593566895</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>2.589977264404297</v>
+        <v>3.457412004470825</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>2.577269315719604</v>
+        <v>3.672144174575806</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>2.577269315719604</v>
+        <v>3.706796646118164</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
-        <v>2.557654857635498</v>
+        <v>3.697768926620483</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2">
-        <v>2.557654857635498</v>
+        <v>3.300342082977295</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45347</v>
+        <v>45371</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2">
-        <v>2.433985948562622</v>
+        <v>3.369502305984497</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45347</v>
+        <v>45371</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>2.433985948562622</v>
+        <v>3.574325323104858</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45347</v>
+        <v>45371</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>2.42393946647644</v>
+        <v>2.986258029937744</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45347</v>
+        <v>45371</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2">
-        <v>2.481899976730347</v>
+        <v>2.339095830917358</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>2.481899976730347</v>
+        <v>2.29724383354187</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>2.481430768966675</v>
+        <v>2.287608623504639</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2">
-        <v>2.481430768966675</v>
+        <v>2.170822858810425</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2">
-        <v>2.451274156570435</v>
+        <v>2.105140686035156</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>2.456482172012329</v>
+        <v>2.165964126586914</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>2.400740385055542</v>
+        <v>2.736754655838013</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2">
-        <v>2.365919351577759</v>
+        <v>3.088069915771484</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2">
-        <v>2.201577425003052</v>
+        <v>4.221695423126221</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2">
-        <v>2.406763315200806</v>
+        <v>4.296972274780273</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2">
-        <v>2.24443531036377</v>
+        <v>4.318789005279541</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2">
-        <v>2.231968641281128</v>
+        <v>4.155550956726074</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51" s="2">
-        <v>2.124657154083252</v>
+        <v>3.979258298873901</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2">
-        <v>2.315309524536133</v>
+        <v>4.177427768707275</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2">
-        <v>2.275897979736328</v>
+        <v>4.174818992614746</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>2.324153184890747</v>
+        <v>3.795731067657471</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2">
-        <v>2.396490812301636</v>
+        <v>3.769979476928711</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56" s="2">
-        <v>2.383782863616943</v>
+        <v>3.720515251159668</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C57" s="2">
-        <v>2.383782863616943</v>
+        <v>3.68045973777771</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2">
-        <v>2.43305230140686</v>
+        <v>3.625741958618164</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C59" s="2">
-        <v>2.451343297958374</v>
+        <v>3.428699016571045</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C60" s="2">
-        <v>0.854681670665741</v>
+        <v>3.479614973068237</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C61" s="2">
-        <v>1.01043426990509</v>
+        <v>3.640857934951782</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C62" s="2">
-        <v>1.124975085258484</v>
+        <v>3.012799978256226</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45348</v>
+        <v>45372</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C63" s="2">
-        <v>1.102128982543945</v>
+        <v>2.36231541633606</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C64" s="2">
-        <v>1.44723916053772</v>
+        <v>2.24016261100769</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>1.648712515830994</v>
+        <v>2.209706544876099</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C66" s="2">
-        <v>1.789599418640137</v>
+        <v>2.113217353820801</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C67" s="2">
-        <v>3.460502862930298</v>
+        <v>2.070497035980225</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C68" s="2">
-        <v>3.534189701080322</v>
+        <v>2.128940582275391</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C69" s="2">
-        <v>3.555737495422363</v>
+        <v>2.734561204910278</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C70" s="2">
-        <v>3.502632856369019</v>
+        <v>3.064020156860352</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C71" s="2">
-        <v>3.484794855117798</v>
+        <v>4.280899524688721</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B72">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2">
-        <v>3.318080425262451</v>
+        <v>4.297880172729492</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2">
-        <v>3.534193754196167</v>
+        <v>4.29173755645752</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C74" s="2">
-        <v>3.145650386810303</v>
+        <v>4.162452220916748</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>3.086029767990112</v>
+        <v>3.807162761688232</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C76" s="2">
-        <v>3.313674211502075</v>
+        <v>3.971662521362305</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B77">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>3.392184495925903</v>
+        <v>3.969053745269775</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2">
-        <v>3.265348434448242</v>
+        <v>3.71341347694397</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2">
-        <v>3.150903701782227</v>
+        <v>3.764338731765747</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2">
-        <v>3.228302240371704</v>
+        <v>3.776564598083496</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B81">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C81" s="2">
-        <v>3.336153268814087</v>
+        <v>3.710996866226196</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C82" s="2">
-        <v>2.864120721817017</v>
+        <v>3.613184452056885</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C83" s="2">
-        <v>2.600557088851929</v>
+        <v>3.620223522186279</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45349</v>
+        <v>45373</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C84" s="2">
-        <v>2.638697147369385</v>
+        <v>3.545651435852051</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45349</v>
+        <v>45373</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C85" s="2">
-        <v>2.489369869232178</v>
+        <v>3.424517631530762</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45349</v>
+        <v>45373</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2">
-        <v>2.564977645874023</v>
+        <v>2.705356359481812</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45349</v>
+        <v>45373</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2">
-        <v>2.58297061920166</v>
+        <v>2.370362281799316</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C88" s="2">
-        <v>2.659926652908325</v>
+        <v>2.15131402015686</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C89" s="2">
-        <v>2.859707832336426</v>
+        <v>2.246299028396606</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C90" s="2">
-        <v>3.094176769256592</v>
+        <v>2.149628877639771</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C91" s="2">
-        <v>4.186346054077148</v>
+        <v>2.109325408935547</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C92" s="2">
-        <v>3.906575679779053</v>
+        <v>1.993576765060425</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C93" s="2">
-        <v>3.928123474121094</v>
+        <v>2.128603219985962</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C94" s="2">
-        <v>3.96750545501709</v>
+        <v>1.990267634391785</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C95" s="2">
-        <v>4.016707420349121</v>
+        <v>1.805531144142151</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B96">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C96" s="2">
-        <v>4.035687446594238</v>
+        <v>1.789688348770142</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B97">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2">
-        <v>3.718744277954102</v>
+        <v>1.463794946670532</v>
       </c>
     </row>
   </sheetData>
